--- a/mir156_172/mir156_172analysis.xlsx
+++ b/mir156_172/mir156_172analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mir156_172\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/mir156_172/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="465" windowWidth="4680" windowHeight="8655" tabRatio="814" activeTab="2"/>
+    <workbookView xWindow="3340" yWindow="1000" windowWidth="20200" windowHeight="16620" tabRatio="814" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="precursor" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="mature" sheetId="2" r:id="rId3"/>
     <sheet name="target gene" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -456,7 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -845,17 +845,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="8"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>117</v>
       </c>
@@ -875,7 +875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
         <v>22524246</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -915,7 +915,7 @@
         <v>4666516</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -935,7 +935,7 @@
         <v>4666123</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -955,7 +955,7 @@
         <v>42923973</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -975,7 +975,7 @@
         <v>4513012</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -995,7 +995,7 @@
         <v>24120084</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>35143666</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>25026430</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>5230764</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>26554959</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>13111595</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>21478415</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>21491417</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>15065368</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>18289212</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1208,19 +1208,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>103</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2506,17 +2506,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="8"/>
+    <col min="1" max="1" width="17.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>22524240</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>4666470</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>4666402</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>4666095</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>4666022</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>4512993</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>25026421</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>44</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>21478414</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>21478252</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>15065367</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>15065275</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>21491416</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>50</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>21491254</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>51</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>24120082</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>26554923</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>26554855</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>18289202</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>57</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>5230756</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>5230639</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>60</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>22881932</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>42923766</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>64</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>13111515</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>66</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>35143576</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>67</v>
       </c>
@@ -3026,16 +3026,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>40335718</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>17641511</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>2110544</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>4077949</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>34362334</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>33075371</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1160267</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>69</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>27391266</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>29708687</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>19103294</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>7550141</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>25278696</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>19648233</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>

--- a/mir156_172/mir156_172analysis.xlsx
+++ b/mir156_172/mir156_172analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="1000" windowWidth="20200" windowHeight="16620" tabRatio="814" activeTab="1"/>
+    <workbookView xWindow="2760" yWindow="580" windowWidth="27820" windowHeight="16620" tabRatio="814" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="precursor" sheetId="1" r:id="rId1"/>
@@ -529,13 +529,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,6 +559,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,346 +855,346 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="8"/>
+    <col min="2" max="2" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>22524147</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>22524246</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>4666341</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>4666516</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>4665975</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>4666123</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>42923736</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>42923973</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>4512884</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>4513012</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>24119995</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>24120084</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>35143537</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>35143666</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>25026327</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>25026430</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>5230609</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>5230764</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>26554795</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>26554959</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>13111485</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>13111595</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>21478230</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>21478415</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>21491232</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>21491417</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>15065253</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>15065368</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>18289107</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>18289212</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>22881834</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>22881942</v>
       </c>
     </row>
@@ -1208,1291 +1211,1291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="11" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>10104666393</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>4666393</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2979</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.99899300000000002</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>1.00705E-3</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="K2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>10104666395</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>4666395</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2978</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.999664</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>3.3579600000000002E-4</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="K3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>10104666069</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>4666069</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2975</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.89714300000000002</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.102857</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="K4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>10104666104</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4666104</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2981</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.99932900000000002</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>6.7091600000000003E-4</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="K5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>10142923787</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>42923787</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2909</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.53764199999999995</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.46235799999999999</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6" s="5" t="s">
+      <c r="K6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>10142923807</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>42923807</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2940</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.95901400000000003</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>4.0986399999999999E-2</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="K7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>10142923854</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>42923854</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2953</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0.99898399999999998</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>1.01592E-3</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="K8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>10142923937</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>42923937</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2950</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0.951017</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>4.8983100000000002E-2</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="K9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>10204512916</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>4512916</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>2920</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.99931499999999995</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>6.8493199999999997E-4</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="K10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>10204512943</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>4512943</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2919</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0.99657399999999996</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>3.4258299999999999E-3</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="5" t="s">
+      <c r="K11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>10204512971</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>4512971</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>2873</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>0.86390500000000003</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>0.13609499999999999</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" s="5" t="s">
+      <c r="K12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>10204512972</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>4512972</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>2916</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.99880000000000002</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>1.20027E-3</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="K13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>10505230623</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>5230623</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>2494</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.99679200000000001</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>3.2077E-3</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="K14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>10505230699</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>5230699</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>2494</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>0.99879700000000005</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>1.2028900000000001E-3</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" s="5" t="s">
+      <c r="K15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>10626554879</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>26554879</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>2821</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.99929100000000004</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>7.0896800000000003E-4</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="K16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>10713111497</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>13111497</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>2748</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>0.99126599999999998</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>8.7336199999999992E-3</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N17" s="5" t="s">
+      <c r="K17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>10713111498</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>13111498</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>2737</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.91231300000000004</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>8.7687200000000007E-2</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="K18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>10713111510</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>13111510</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>2740</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>0.97518199999999999</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>2.4817499999999999E-2</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="K19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>10713111527</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>13111527</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>2735</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>0.99890299999999999</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>1.0968900000000001E-3</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N20" s="5" t="s">
+      <c r="K20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>10713111540</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>13111540</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>2742</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>0.99744699999999997</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>2.55288E-3</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21" s="5" t="s">
+      <c r="K21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>10915065299</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>15065299</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>2547</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>0.98017299999999996</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>1.98272E-2</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N22" s="5" t="s">
+      <c r="K22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>10915065300</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>15065300</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>2571</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>0.88836999999999999</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>0.11162999999999999</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N23" s="5" t="s">
+      <c r="K23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>10915065302</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>15065302</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>2529</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>0.93080300000000005</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>6.9197300000000003E-2</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N24" s="5" t="s">
+      <c r="K24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>10915065306</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>15065306</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>2555</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>0.92994100000000002</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>7.0058700000000002E-2</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N25" s="5" t="s">
+      <c r="K25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>10915065312</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>15065312</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>2815</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>0.98046199999999994</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>1.9538199999999999E-2</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" s="5" t="s">
+      <c r="K26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>10918289115</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>18289115</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>2933</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>0.51176299999999997</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>0.48823699999999998</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N27" s="5" t="s">
+      <c r="K27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>10918289176</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>18289176</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>2936</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>0.50732299999999997</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>0.49267699999999998</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N28" s="5" t="s">
+      <c r="K28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>10918289204</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>18289204</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>2954</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>0.97901199999999999</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>2.09885E-2</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N29" s="5" t="s">
+      <c r="K29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2506,21 +2509,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="8"/>
+    <col min="1" max="1" width="17.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C1" t="s">
@@ -2537,482 +2540,482 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>22524221</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>22524240</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>4666450</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>4666470</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>4666383</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>4666402</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>4666074</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>4666095</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>4666003</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>4666022</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>4512974</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>4512993</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>25026402</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>25026421</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>21478393</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>21478414</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>21478233</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>21478252</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>15065346</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>15065367</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>15065256</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>15065275</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>21491395</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>21491416</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>21491235</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>21491254</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>24120063</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>24120082</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>26554902</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>26554923</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>26554836</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>26554855</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>18289182</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>18289202</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>5230735</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>5230756</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>5230619</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>5230639</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>22881912</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>22881932</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>42923746</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>42923766</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>13111495</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>13111515</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>35143556</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>35143576</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>35143626</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>35143645</v>
       </c>
     </row>
@@ -3026,376 +3029,377 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>40331733</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>40335718</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>17631609</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>17641511</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>2105726</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2110544</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>4073883</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>4077949</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>34358193</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>34362334</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>33071622</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>33075371</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1155968</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>1160267</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>27387537</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>27391266</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>29703530</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>29708687</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>19099675</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>19103294</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>7545486</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>7550141</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>25274449</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>25278696</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>19643463</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>19648233</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>18918260</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>18921656</v>
       </c>
     </row>
